--- a/data/spring-cloud-shop/shop-job-model_structure.xlsx
+++ b/data/spring-cloud-shop/shop-job-model_structure.xlsx
@@ -336,6 +336,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>groupName</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
@@ -345,36 +348,33 @@
     <t>sequence</t>
   </si>
   <si>
-    <t>groupName</t>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>RESUME</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>MANUAL</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>EXECUTE</t>
   </si>
   <si>
     <t>PAUSE</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>EXECUTE</t>
-  </si>
-  <si>
-    <t>MANUAL</t>
-  </si>
-  <si>
-    <t>RESUME</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>CREATE</t>
-  </si>
-  <si>
-    <t>UPDATE</t>
-  </si>
-  <si>
-    <t>EMPTY</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -387,55 +387,55 @@
     <t>jobGroup</t>
   </si>
   <si>
+    <t>serviceName</t>
+  </si>
+  <si>
     <t>cron</t>
   </si>
   <si>
+    <t>updateUser</t>
+  </si>
+  <si>
     <t>jobGroupId</t>
   </si>
   <si>
-    <t>updateUser</t>
+    <t>updateTime</t>
+  </si>
+  <si>
+    <t>jobStatusName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>serviceMethod</t>
   </si>
   <si>
     <t>createTime</t>
   </si>
   <si>
-    <t>serviceName</t>
-  </si>
-  <si>
-    <t>updateTime</t>
-  </si>
-  <si>
-    <t>jobStatusName</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>serviceMethod</t>
+    <t>PAUSED</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>BLOCKED</t>
   </si>
   <si>
     <t>COMPLETE</t>
   </si>
   <si>
-    <t>PAUSED</t>
-  </si>
-  <si>
-    <t>NORMAL</t>
-  </si>
-  <si>
-    <t>BLOCKED</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>NONE</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>ERROR</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -4839,7 +4839,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -4847,13 +4847,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
@@ -4867,7 +4867,7 @@
         <v>39</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -4878,10 +4878,10 @@
         <v>108</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -4892,10 +4892,10 @@
         <v>109</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -5001,13 +5001,13 @@
         <v>49</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
@@ -5029,13 +5029,13 @@
         <v>53</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
@@ -5099,7 +5099,7 @@
         <v>61</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>39</v>
@@ -5113,13 +5113,13 @@
         <v>61</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -5127,13 +5127,13 @@
         <v>61</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -5141,7 +5141,7 @@
         <v>61</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>39</v>
@@ -5155,13 +5155,13 @@
         <v>61</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -5169,7 +5169,7 @@
         <v>61</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>39</v>
@@ -5183,13 +5183,13 @@
         <v>61</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -5197,13 +5197,13 @@
         <v>61</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -5211,7 +5211,7 @@
         <v>61</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>39</v>
@@ -5225,7 +5225,7 @@
         <v>61</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>39</v>
@@ -5253,13 +5253,13 @@
         <v>61</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -5267,13 +5267,13 @@
         <v>61</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
@@ -5281,13 +5281,13 @@
         <v>83</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -5295,7 +5295,7 @@
         <v>83</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
@@ -5309,7 +5309,7 @@
         <v>83</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
@@ -5323,13 +5323,13 @@
         <v>83</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -5337,13 +5337,13 @@
         <v>83</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -5351,13 +5351,13 @@
         <v>83</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
@@ -5365,7 +5365,7 @@
         <v>83</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
@@ -5379,13 +5379,13 @@
         <v>83</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
@@ -5393,13 +5393,13 @@
         <v>83</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
@@ -5421,13 +5421,13 @@
         <v>89</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -5449,13 +5449,13 @@
         <v>89</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
@@ -5463,7 +5463,7 @@
         <v>89</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>39</v>
@@ -5477,7 +5477,7 @@
         <v>91</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>39</v>
@@ -5491,7 +5491,7 @@
         <v>91</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>39</v>
@@ -5505,7 +5505,7 @@
         <v>91</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>39</v>
@@ -5519,7 +5519,7 @@
         <v>91</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>39</v>
@@ -5533,13 +5533,13 @@
         <v>91</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
@@ -5547,7 +5547,7 @@
         <v>91</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>39</v>
@@ -5561,7 +5561,7 @@
         <v>91</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>39</v>
@@ -5575,13 +5575,13 @@
         <v>91</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -5589,7 +5589,7 @@
         <v>91</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>39</v>
@@ -5603,13 +5603,13 @@
         <v>91</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -5617,13 +5617,13 @@
         <v>91</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -5631,13 +5631,13 @@
         <v>91</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
@@ -5651,7 +5651,7 @@
         <v>39</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62">
@@ -5659,7 +5659,7 @@
         <v>93</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>39</v>
@@ -5673,13 +5673,13 @@
         <v>93</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -5687,13 +5687,13 @@
         <v>93</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>39</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
